--- a/records_reductions.xlsx
+++ b/records_reductions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\Desktop\Cursos\Cursos Github\Predictive-maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB57271-29A9-4930-A562-AA44D4EBBAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D23D11-92D1-47DF-9308-7695197D9325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3F1D3A0A-6D36-477C-A835-6514A10E2B55}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="44">
   <si>
     <t>Autoencoder</t>
   </si>
@@ -123,6 +123,51 @@
   </si>
   <si>
     <t>clase 1:10</t>
+  </si>
+  <si>
+    <t>0.7796,</t>
+  </si>
+  <si>
+    <t>0.8447,</t>
+  </si>
+  <si>
+    <t>PCA final</t>
+  </si>
+  <si>
+    <t>L1 y L2</t>
+  </si>
+  <si>
+    <t>0.7899,</t>
+  </si>
+  <si>
+    <t>0.8255,</t>
+  </si>
+  <si>
+    <t>0.7953,</t>
+  </si>
+  <si>
+    <t>0.8233,</t>
+  </si>
+  <si>
+    <t>Sampling 1</t>
+  </si>
+  <si>
+    <t>0.7669,</t>
+  </si>
+  <si>
+    <t>0.8507,</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>Detección</t>
+  </si>
+  <si>
+    <t>Sampling .8</t>
+  </si>
+  <si>
+    <t>TFP</t>
   </si>
 </sst>
 </file>
@@ -379,8 +424,8 @@
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>14128</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>220316</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
@@ -489,6 +534,243 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BFE960A-FC54-EBB7-38E7-A5066275DA16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1005840" y="9608820"/>
+          <a:ext cx="4267200" cy="4335780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>83955</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>22183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>318655</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>14113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09241E5B-0D55-63CB-552D-C2561E168780}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12275955" y="11604583"/>
+          <a:ext cx="5111500" cy="5215094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>605342</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>27711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>387150</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>166451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3063042E-8929-23A8-E6E5-52395C209424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6701342" y="9809020"/>
+          <a:ext cx="5268208" cy="5001686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>83956</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>174442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>28112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5563B8C9-62A0-17B8-993A-2A4CBC316C6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12275956" y="6173460"/>
+          <a:ext cx="5250044" cy="5437052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>362117</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>491989</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>134096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AEB7BB9-8343-5779-467C-3D60B1964377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10115717" y="16970188"/>
+          <a:ext cx="4397072" cy="4553696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -813,13 +1095,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49380EA-7386-460C-A0A7-6C37C42F60F4}">
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y104" sqref="Y104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="31" max="31" width="14.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:41" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1462,6 +1747,546 @@
         <v>0.89</v>
       </c>
       <c r="AN13">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="39" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0.87429999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>0.81089999999999995</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0.86890000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" t="s">
+        <v>2</v>
+      </c>
+      <c r="L43" t="s">
+        <v>33</v>
+      </c>
+      <c r="M43" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>34</v>
+      </c>
+      <c r="O43" t="s">
+        <v>6</v>
+      </c>
+      <c r="P43">
+        <v>0.80730000000000002</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF43">
+        <v>0.86860000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="L44" t="s">
+        <v>7</v>
+      </c>
+      <c r="M44" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" t="s">
+        <v>9</v>
+      </c>
+      <c r="O44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ44">
+        <v>0.80910000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0.94</v>
+      </c>
+      <c r="E45">
+        <v>0.9</v>
+      </c>
+      <c r="F45">
+        <v>0.92</v>
+      </c>
+      <c r="G45">
+        <v>4528</v>
+      </c>
+      <c r="H45">
+        <f>AVERAGE(D45:F45)</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0.78</v>
+      </c>
+      <c r="E46">
+        <v>0.84</v>
+      </c>
+      <c r="F46">
+        <v>0.81</v>
+      </c>
+      <c r="G46">
+        <v>1822</v>
+      </c>
+      <c r="H46">
+        <f>AVERAGE(D46:F46)</f>
+        <v>0.81</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0.93</v>
+      </c>
+      <c r="N46">
+        <v>0.91</v>
+      </c>
+      <c r="O46">
+        <v>0.92</v>
+      </c>
+      <c r="P46">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="47" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0.79</v>
+      </c>
+      <c r="N47">
+        <v>0.83</v>
+      </c>
+      <c r="O47">
+        <v>0.81</v>
+      </c>
+      <c r="P47">
+        <v>1822</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0.93</v>
+      </c>
+      <c r="AH47">
+        <v>0.91</v>
+      </c>
+      <c r="AI47">
+        <v>0.92</v>
+      </c>
+      <c r="AJ47">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="48" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>0.89</v>
+      </c>
+      <c r="E48">
+        <v>6350</v>
+      </c>
+      <c r="AF48">
+        <v>1</v>
+      </c>
+      <c r="AG48">
+        <v>0.8</v>
+      </c>
+      <c r="AH48">
+        <v>0.82</v>
+      </c>
+      <c r="AI48">
+        <v>0.81</v>
+      </c>
+      <c r="AJ48">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="49" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49">
+        <v>0.86</v>
+      </c>
+      <c r="F49">
+        <v>0.87</v>
+      </c>
+      <c r="G49">
+        <v>0.87</v>
+      </c>
+      <c r="H49">
+        <v>6350</v>
+      </c>
+      <c r="L49" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49">
+        <v>0.89</v>
+      </c>
+      <c r="N49">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="50" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>0.89</v>
+      </c>
+      <c r="E50">
+        <v>0.89</v>
+      </c>
+      <c r="F50">
+        <v>0.89</v>
+      </c>
+      <c r="G50">
+        <v>6350</v>
+      </c>
+      <c r="L50" t="s">
+        <v>12</v>
+      </c>
+      <c r="M50" t="s">
+        <v>13</v>
+      </c>
+      <c r="N50">
+        <v>0.86</v>
+      </c>
+      <c r="O50">
+        <v>0.87</v>
+      </c>
+      <c r="P50">
+        <v>0.86</v>
+      </c>
+      <c r="Q50">
+        <v>6350</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG50">
+        <v>0.89</v>
+      </c>
+      <c r="AH50">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="51" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="K51" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" t="s">
+        <v>13</v>
+      </c>
+      <c r="M51">
+        <v>0.89</v>
+      </c>
+      <c r="N51">
+        <v>0.89</v>
+      </c>
+      <c r="O51">
+        <v>0.89</v>
+      </c>
+      <c r="P51">
+        <v>6350</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH51">
+        <v>0.86</v>
+      </c>
+      <c r="AI51">
+        <v>0.87</v>
+      </c>
+      <c r="AJ51">
+        <v>0.87</v>
+      </c>
+      <c r="AK51">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="52" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="AE52" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG52">
+        <v>0.89</v>
+      </c>
+      <c r="AH52">
+        <v>0.89</v>
+      </c>
+      <c r="AI52">
+        <v>0.89</v>
+      </c>
+      <c r="AJ52">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="71" spans="31:32" x14ac:dyDescent="0.3">
+      <c r="AE71" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF71">
+        <f>400 / (400+1504)</f>
+        <v>0.21008403361344538</v>
+      </c>
+    </row>
+    <row r="72" spans="31:32" x14ac:dyDescent="0.3">
+      <c r="AE72" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF72">
+        <f>1504 / (1504+318)</f>
+        <v>0.82546652030735457</v>
+      </c>
+    </row>
+    <row r="94" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>37</v>
+      </c>
+      <c r="R94" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>0.87180000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97" t="s">
+        <v>39</v>
+      </c>
+      <c r="H97" t="s">
+        <v>6</v>
+      </c>
+      <c r="I97">
+        <v>0.80669999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0.94</v>
+      </c>
+      <c r="G100">
+        <v>0.9</v>
+      </c>
+      <c r="H100">
+        <v>0.92</v>
+      </c>
+      <c r="I100">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="101" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>0.77</v>
+      </c>
+      <c r="G101">
+        <v>0.85</v>
+      </c>
+      <c r="H101">
+        <v>0.81</v>
+      </c>
+      <c r="I101">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="103" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103">
+        <v>0.88</v>
+      </c>
+      <c r="G103">
+        <v>6350</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z103">
+        <f>44 / (444+1538)</f>
+        <v>2.2199798183652877E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104">
+        <v>0.85</v>
+      </c>
+      <c r="H104">
+        <v>0.87</v>
+      </c>
+      <c r="I104">
+        <v>0.86</v>
+      </c>
+      <c r="J104">
+        <v>6350</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z104">
+        <f xml:space="preserve"> 1538 / (1538+284)</f>
+        <v>0.84412733260153672</v>
+      </c>
+    </row>
+    <row r="105" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105">
+        <v>0.89</v>
+      </c>
+      <c r="G105">
+        <v>0.88</v>
+      </c>
+      <c r="H105">
+        <v>0.88</v>
+      </c>
+      <c r="I105">
         <v>6350</v>
       </c>
     </row>
